--- a/Analytics/OTHERLEAGUES/RefereeFirstCard_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/RefereeFirstCard_ol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="208">
   <si>
     <t>Referee</t>
   </si>
@@ -283,6 +283,9 @@
     <t>Anthony Backhouse</t>
   </si>
   <si>
+    <t>David Webb</t>
+  </si>
+  <si>
     <t>Florian Heft</t>
   </si>
   <si>
@@ -301,13 +304,19 @@
     <t>James Bell</t>
   </si>
   <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
     <t>Michael Bacher</t>
   </si>
   <si>
-    <t>David Webb</t>
+    <t>Samuel Barrott</t>
   </si>
   <si>
     <t>Darren England</t>
@@ -328,12 +337,6 @@
     <t>Robin Braun</t>
   </si>
   <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>Martin Petersen</t>
-  </si>
-  <si>
     <t>Matt Donohue</t>
   </si>
   <si>
@@ -361,12 +364,18 @@
     <t>Tom Nield</t>
   </si>
   <si>
+    <t>Patrick Schwengers</t>
+  </si>
+  <si>
     <t>Stuart Attwell</t>
   </si>
   <si>
     <t>Thomas Bramall</t>
   </si>
   <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
     <t>Matthias Jöllenbeck</t>
   </si>
   <si>
@@ -379,6 +388,9 @@
     <t>Alexander Sather</t>
   </si>
   <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
     <t>Steve Martin</t>
   </si>
   <si>
@@ -403,6 +415,9 @@
     <t>Max Burda</t>
   </si>
   <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
     <t>Ben Toner</t>
   </si>
   <si>
@@ -436,9 +451,6 @@
     <t>Chris Kavanagh</t>
   </si>
   <si>
-    <t>Patrick Schwengers</t>
-  </si>
-  <si>
     <t>Felix Zwayer</t>
   </si>
   <si>
@@ -448,12 +460,6 @@
     <t>Sunny Gill</t>
   </si>
   <si>
-    <t>Samuel Barrott</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
-  </si>
-  <si>
     <t>Robert Schröder</t>
   </si>
   <si>
@@ -463,9 +469,6 @@
     <t>Deniz Aytekin</t>
   </si>
   <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
     <t>Robert Hartmann</t>
   </si>
   <si>
@@ -478,9 +481,6 @@
     <t>Graham Scott</t>
   </si>
   <si>
-    <t>Florian Badstübner</t>
-  </si>
-  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
@@ -544,6 +544,15 @@
     <t>92</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>Stephen Martin</t>
   </si>
   <si>
@@ -559,43 +568,52 @@
     <t>Harm Osmers</t>
   </si>
   <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
     <t>Aarne Aarnink</t>
   </si>
   <si>
-    <t>Nicolas Winter</t>
-  </si>
-  <si>
     <t>Sascha Stegemann</t>
   </si>
   <si>
     <t>Robert Jones</t>
   </si>
   <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
     <t>Thomas Kirk</t>
   </si>
   <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
     <t>Michael Salisbury</t>
   </si>
   <si>
     <t>Jarred Gillett</t>
   </si>
   <si>
+    <t>Arthur Denil</t>
+  </si>
+  <si>
     <t>Daniel Siebert</t>
   </si>
   <si>
-    <t>Arthur Denil</t>
-  </si>
-  <si>
     <t>Craig Pawson</t>
   </si>
   <si>
+    <t>Jeremy Simpson</t>
+  </si>
+  <si>
     <t>Darren Bond</t>
   </si>
   <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Jeremy Simpson</t>
+    <t>Andy Madley</t>
+  </si>
+  <si>
+    <t>Matonga Simonini</t>
   </si>
   <si>
     <t>Sven Jablonski</t>
@@ -604,28 +622,25 @@
     <t>Mark Dwyer</t>
   </si>
   <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
     <t>Anthony Taylor</t>
   </si>
   <si>
     <t>Charles Breakspear</t>
   </si>
   <si>
-    <t>Andy Madley</t>
-  </si>
-  <si>
     <t>Peter Bankes</t>
   </si>
   <si>
+    <t>Lukas Benen</t>
+  </si>
+  <si>
     <t>Paul Tierney</t>
   </si>
   <si>
     <t>Will Finnie</t>
   </si>
   <si>
-    <t>Lukas Benen</t>
+    <t>Alex Chilowicz</t>
   </si>
 </sst>
 </file>
@@ -803,7 +818,7 @@
         <v>93</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -814,7 +829,7 @@
         <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -825,7 +840,7 @@
         <v>95</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -836,7 +851,7 @@
         <v>96</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +961,7 @@
         <v>106</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -1210,7 +1225,7 @@
         <v>130</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1221,7 +1236,7 @@
         <v>131</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1232,7 +1247,7 @@
         <v>132</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1243,7 +1258,7 @@
         <v>133</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1254,7 +1269,7 @@
         <v>134</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -1614,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" t="n">
         <v>9.0</v>
@@ -1625,10 +1640,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -1636,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
@@ -1669,10 +1684,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -1680,10 +1695,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -1691,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -1702,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -1713,10 +1728,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -1724,7 +1739,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -1735,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -1746,10 +1761,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -1757,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -1768,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
@@ -1779,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
@@ -1790,7 +1805,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C19" t="n">
         <v>5.0</v>
@@ -1801,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -1812,7 +1827,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
         <v>5.0</v>
@@ -1823,7 +1838,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C22" t="n">
         <v>5.0</v>
@@ -1834,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
@@ -1845,10 +1860,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -1856,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -1867,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -1878,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C27" t="n">
         <v>4.0</v>
@@ -1889,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="C28" t="n">
         <v>4.0</v>
@@ -1900,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
         <v>4.0</v>
@@ -1911,7 +1926,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C30" t="n">
         <v>4.0</v>
@@ -1922,7 +1937,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C31" t="n">
         <v>4.0</v>
@@ -1933,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C32" t="n">
         <v>4.0</v>
@@ -1944,7 +1959,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C33" t="n">
         <v>4.0</v>
@@ -1955,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C34" t="n">
         <v>4.0</v>
@@ -1966,7 +1981,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C35" t="n">
         <v>4.0</v>
@@ -1977,10 +1992,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -1988,10 +2003,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -1999,10 +2014,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -2010,10 +2025,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -2021,10 +2036,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -2032,10 +2047,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -2043,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C42" t="n">
         <v>3.0</v>
@@ -2054,7 +2069,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C43" t="n">
         <v>3.0</v>
@@ -2065,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C44" t="n">
         <v>3.0</v>
@@ -2076,7 +2091,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C45" t="n">
         <v>3.0</v>
@@ -2087,7 +2102,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" t="n">
         <v>3.0</v>
@@ -2098,7 +2113,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C47" t="n">
         <v>3.0</v>
@@ -2109,7 +2124,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C48" t="n">
         <v>3.0</v>
@@ -2120,7 +2135,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="C49" t="n">
         <v>3.0</v>
@@ -2131,7 +2146,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C50" t="n">
         <v>3.0</v>
@@ -2142,7 +2157,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
         <v>3.0</v>
@@ -2153,10 +2168,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="C52" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -2164,10 +2179,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C53" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -2175,10 +2190,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -2186,10 +2201,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C55" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -2197,10 +2212,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C56" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -2208,10 +2223,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -2219,10 +2234,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -2230,7 +2245,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C59" t="n">
         <v>2.0</v>
@@ -2241,7 +2256,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C60" t="n">
         <v>2.0</v>
@@ -2252,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C61" t="n">
         <v>2.0</v>
@@ -2263,7 +2278,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C62" t="n">
         <v>2.0</v>
@@ -2274,7 +2289,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C63" t="n">
         <v>2.0</v>
@@ -2285,7 +2300,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="C64" t="n">
         <v>2.0</v>
@@ -2296,7 +2311,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C65" t="n">
         <v>2.0</v>
@@ -2307,7 +2322,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C66" t="n">
         <v>2.0</v>
@@ -2318,7 +2333,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C67" t="n">
         <v>2.0</v>
@@ -2329,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C68" t="n">
         <v>2.0</v>
@@ -2340,10 +2355,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -2351,10 +2366,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -2362,10 +2377,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -2373,10 +2388,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C72" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2384,10 +2399,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C73" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2395,10 +2410,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -2406,10 +2421,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2417,10 +2432,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -2428,7 +2443,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C77" t="n">
         <v>1.0</v>
@@ -2439,7 +2454,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C78" t="n">
         <v>1.0</v>
@@ -2450,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C79" t="n">
         <v>1.0</v>
@@ -2461,7 +2476,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="C80" t="n">
         <v>1.0</v>
@@ -2472,7 +2487,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C81" t="n">
         <v>1.0</v>
@@ -2483,7 +2498,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C82" t="n">
         <v>1.0</v>
@@ -2494,7 +2509,7 @@
         <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C83" t="n">
         <v>1.0</v>
@@ -2505,7 +2520,7 @@
         <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C84" t="n">
         <v>1.0</v>
@@ -2516,7 +2531,7 @@
         <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C85" t="n">
         <v>1.0</v>
@@ -2527,7 +2542,7 @@
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C86" t="n">
         <v>1.0</v>
@@ -2538,7 +2553,7 @@
         <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C87" t="n">
         <v>1.0</v>
@@ -2549,7 +2564,7 @@
         <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="C88" t="n">
         <v>1.0</v>
@@ -2560,7 +2575,7 @@
         <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C89" t="n">
         <v>1.0</v>
@@ -2571,7 +2586,7 @@
         <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C90" t="n">
         <v>1.0</v>
@@ -2582,7 +2597,7 @@
         <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C91" t="n">
         <v>1.0</v>
@@ -2593,7 +2608,7 @@
         <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C92" t="n">
         <v>1.0</v>
@@ -2604,9 +2619,42 @@
         <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2637,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -2648,10 +2696,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
@@ -2659,10 +2707,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -2670,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2729,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -2692,10 +2740,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -2703,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -2714,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -2725,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -2736,10 +2784,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -2747,10 +2795,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -2758,10 +2806,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
@@ -2769,7 +2817,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -2780,7 +2828,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
         <v>6.0</v>
@@ -2791,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
         <v>6.0</v>
@@ -2802,10 +2850,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -2813,10 +2861,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -2824,10 +2872,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -2835,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -2846,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C21" t="n">
         <v>5.0</v>
@@ -2857,7 +2905,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
         <v>5.0</v>
@@ -2868,10 +2916,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -2879,10 +2927,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -2890,10 +2938,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -2901,10 +2949,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -2912,10 +2960,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -2923,7 +2971,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="C28" t="n">
         <v>4.0</v>
@@ -2934,7 +2982,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C29" t="n">
         <v>4.0</v>
@@ -2945,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
         <v>4.0</v>
@@ -2956,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="C31" t="n">
         <v>4.0</v>
@@ -2967,7 +3015,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="n">
         <v>4.0</v>
@@ -2978,10 +3026,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -2989,10 +3037,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -3000,10 +3048,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C35" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
@@ -3011,10 +3059,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -3022,10 +3070,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="C37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -3033,7 +3081,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C38" t="n">
         <v>3.0</v>
@@ -3044,7 +3092,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C39" t="n">
         <v>3.0</v>
@@ -3055,10 +3103,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -3066,10 +3114,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -3077,10 +3125,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -3088,10 +3136,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -3099,10 +3147,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -3110,10 +3158,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -3121,10 +3169,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -3132,10 +3180,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -3143,7 +3191,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C48" t="n">
         <v>2.0</v>
@@ -3154,7 +3202,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C49" t="n">
         <v>2.0</v>
@@ -3165,7 +3213,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C50" t="n">
         <v>2.0</v>
@@ -3176,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
         <v>2.0</v>
@@ -3187,7 +3235,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C52" t="n">
         <v>2.0</v>
@@ -3198,7 +3246,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C53" t="n">
         <v>2.0</v>
@@ -3209,7 +3257,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C54" t="n">
         <v>2.0</v>
@@ -3220,7 +3268,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C55" t="n">
         <v>2.0</v>
@@ -3231,7 +3279,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C56" t="n">
         <v>2.0</v>
@@ -3242,7 +3290,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C57" t="n">
         <v>2.0</v>
@@ -3253,7 +3301,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C58" t="n">
         <v>2.0</v>
@@ -3264,7 +3312,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C59" t="n">
         <v>2.0</v>
@@ -3275,7 +3323,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" t="n">
         <v>2.0</v>
@@ -3286,7 +3334,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C61" t="n">
         <v>2.0</v>
@@ -3297,7 +3345,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C62" t="n">
         <v>2.0</v>
@@ -3308,7 +3356,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C63" t="n">
         <v>2.0</v>
@@ -3319,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C64" t="n">
         <v>2.0</v>
@@ -3330,7 +3378,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C65" t="n">
         <v>2.0</v>
@@ -3341,10 +3389,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -3355,7 +3403,7 @@
         <v>131</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
@@ -3363,10 +3411,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -3374,10 +3422,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -3385,10 +3433,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -3396,10 +3444,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C71" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
@@ -3407,7 +3455,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C72" t="n">
         <v>1.0</v>
@@ -3418,7 +3466,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C73" t="n">
         <v>1.0</v>
@@ -3429,7 +3477,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -3440,7 +3488,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -3451,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="C76" t="n">
         <v>1.0</v>
@@ -3462,7 +3510,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C77" t="n">
         <v>1.0</v>
@@ -3473,7 +3521,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C78" t="n">
         <v>1.0</v>
@@ -3484,7 +3532,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C79" t="n">
         <v>1.0</v>
@@ -3495,7 +3543,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C80" t="n">
         <v>1.0</v>
@@ -3506,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C81" t="n">
         <v>1.0</v>
@@ -3517,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C82" t="n">
         <v>1.0</v>
@@ -3528,7 +3576,7 @@
         <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="C83" t="n">
         <v>1.0</v>
@@ -3539,7 +3587,7 @@
         <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C84" t="n">
         <v>1.0</v>
@@ -3550,7 +3598,7 @@
         <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C85" t="n">
         <v>1.0</v>
@@ -3561,7 +3609,7 @@
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C86" t="n">
         <v>1.0</v>
@@ -3572,9 +3620,97 @@
         <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3605,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -3616,10 +3752,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -3627,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -3638,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -3649,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -3660,10 +3796,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -3671,10 +3807,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -3682,10 +3818,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -3693,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -3704,10 +3840,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -3715,10 +3851,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -3726,7 +3862,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -3737,10 +3873,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -3748,10 +3884,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -3759,10 +3895,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -3770,10 +3906,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -3781,10 +3917,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -3792,7 +3928,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -3803,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C20" t="n">
         <v>3.0</v>
@@ -3814,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
         <v>3.0</v>
@@ -3825,7 +3961,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
@@ -3836,7 +3972,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C23" t="n">
         <v>3.0</v>
@@ -3847,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C24" t="n">
         <v>3.0</v>
@@ -3858,10 +3994,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -3869,10 +4005,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -3880,10 +4016,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -3891,10 +4027,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -3902,10 +4038,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -3913,10 +4049,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -3924,10 +4060,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -3935,10 +4071,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -3946,7 +4082,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
@@ -3957,7 +4093,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C34" t="n">
         <v>2.0</v>
@@ -3968,7 +4104,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C35" t="n">
         <v>2.0</v>
@@ -3979,7 +4115,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C36" t="n">
         <v>2.0</v>
@@ -3990,7 +4126,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C37" t="n">
         <v>2.0</v>
@@ -4001,7 +4137,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C38" t="n">
         <v>2.0</v>
@@ -4012,7 +4148,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="C39" t="n">
         <v>2.0</v>
@@ -4023,7 +4159,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C40" t="n">
         <v>2.0</v>
@@ -4034,7 +4170,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C41" t="n">
         <v>2.0</v>
@@ -4045,7 +4181,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C42" t="n">
         <v>2.0</v>
@@ -4056,7 +4192,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C43" t="n">
         <v>2.0</v>
@@ -4067,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C44" t="n">
         <v>2.0</v>
@@ -4078,10 +4214,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -4089,10 +4225,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -4100,10 +4236,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -4111,10 +4247,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -4122,10 +4258,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -4133,10 +4269,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -4144,10 +4280,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -4155,10 +4291,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -4166,10 +4302,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -4177,10 +4313,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -4188,10 +4324,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -4199,10 +4335,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -4210,10 +4346,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4357,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -4232,7 +4368,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="C59" t="n">
         <v>1.0</v>
@@ -4243,7 +4379,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C60" t="n">
         <v>1.0</v>
@@ -4254,7 +4390,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C61" t="n">
         <v>1.0</v>
@@ -4265,7 +4401,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C62" t="n">
         <v>1.0</v>
@@ -4276,7 +4412,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C63" t="n">
         <v>1.0</v>
@@ -4287,7 +4423,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C64" t="n">
         <v>1.0</v>
@@ -4298,7 +4434,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C65" t="n">
         <v>1.0</v>
@@ -4309,7 +4445,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C66" t="n">
         <v>1.0</v>
@@ -4320,7 +4456,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C67" t="n">
         <v>1.0</v>
@@ -4331,7 +4467,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C68" t="n">
         <v>1.0</v>
@@ -4342,7 +4478,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C69" t="n">
         <v>1.0</v>
@@ -4353,7 +4489,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C70" t="n">
         <v>1.0</v>
@@ -4364,7 +4500,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C71" t="n">
         <v>1.0</v>
@@ -4375,9 +4511,64 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -4408,10 +4599,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -4430,10 +4621,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -4441,10 +4632,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -4452,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -4463,10 +4654,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -4474,10 +4665,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -4485,10 +4676,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -4496,10 +4687,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -4507,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -4518,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -4529,7 +4720,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -4540,7 +4731,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -4551,7 +4742,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -4562,10 +4753,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -4573,10 +4764,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -4584,10 +4775,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -4595,10 +4786,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -4606,10 +4797,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -4617,10 +4808,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -4628,10 +4819,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -4639,10 +4830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -4650,10 +4841,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -4664,7 +4855,7 @@
         <v>107</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -4672,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -4683,7 +4874,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -4694,7 +4885,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -4705,7 +4896,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -4716,7 +4907,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -4727,7 +4918,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -4738,7 +4929,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -4749,7 +4940,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -4760,7 +4951,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -4771,7 +4962,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
@@ -4782,7 +4973,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
@@ -4793,7 +4984,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -4804,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -4815,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -4826,7 +5017,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -4837,7 +5028,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -4848,7 +5039,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -4859,7 +5050,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -4870,7 +5061,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -4881,7 +5072,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
@@ -4892,9 +5083,119 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -4925,10 +5226,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +5237,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -4947,10 +5248,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -4958,10 +5259,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -4969,10 +5270,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -4980,7 +5281,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -4991,10 +5292,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -5002,10 +5303,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -5013,10 +5314,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5325,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -5035,10 +5336,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -5046,10 +5347,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -5057,10 +5358,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -5068,10 +5369,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -5079,10 +5380,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -5090,10 +5391,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -5101,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -5112,7 +5413,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -5123,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -5134,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -5145,7 +5446,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -5156,7 +5457,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -5167,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -5178,7 +5479,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -5189,7 +5490,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -5200,7 +5501,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -5211,7 +5512,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -5222,9 +5523,251 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/OTHERLEAGUES/RefereeFirstCard_ol.xlsx
+++ b/Analytics/OTHERLEAGUES/RefereeFirstCard_ol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="142">
   <si>
     <t>Referee</t>
   </si>
@@ -166,33 +166,69 @@
     <t>47</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>Stephen Martin</t>
   </si>
   <si>
+    <t>Matt Donohue</t>
+  </si>
+  <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
+    <t>Kevin Van Damme</t>
+  </si>
+  <si>
     <t>Oliver Langford</t>
   </si>
   <si>
-    <t>Matt Donohue</t>
+    <t>Bert Put</t>
+  </si>
+  <si>
+    <t>Leigh Doughty</t>
+  </si>
+  <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Jan Boterberg</t>
   </si>
   <si>
     <t>Samuel Allison</t>
   </si>
   <si>
-    <t>Kevin Van Damme</t>
+    <t>Nathan Verboomen</t>
   </si>
   <si>
     <t>Robert Madley</t>
   </si>
   <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
     <t>Felix Prigan</t>
   </si>
   <si>
-    <t>Bert Put</t>
-  </si>
-  <si>
     <t>Tom Bauer</t>
   </si>
   <si>
@@ -205,18 +241,9 @@
     <t>Florian Heft</t>
   </si>
   <si>
-    <t>Leigh Doughty</t>
-  </si>
-  <si>
     <t>Tom Nield</t>
   </si>
   <si>
-    <t>James Bell</t>
-  </si>
-  <si>
-    <t>Jan Boterberg</t>
-  </si>
-  <si>
     <t>Wesli De Cremer</t>
   </si>
   <si>
@@ -226,13 +253,10 @@
     <t>Florian Lechner</t>
   </si>
   <si>
-    <t>Nathan Verboomen</t>
-  </si>
-  <si>
     <t>Robert Kampka</t>
   </si>
   <si>
-    <t>Simon Bourdeaud'hui</t>
+    <t>Wim Smet</t>
   </si>
   <si>
     <t>Robin Braun</t>
@@ -253,66 +277,75 @@
     <t>John Busby</t>
   </si>
   <si>
+    <t>Tony Harrington</t>
+  </si>
+  <si>
     <t>Patrick Schwengers</t>
   </si>
   <si>
     <t>Lewis Smith</t>
   </si>
   <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
     <t>Tobias Welz</t>
   </si>
   <si>
-    <t>Daniel Schlager</t>
+    <t>Nicolas Laforge</t>
+  </si>
+  <si>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Lars Erbst</t>
+  </si>
+  <si>
+    <t>Simon Hooper</t>
   </si>
   <si>
     <t>Joshua Smith</t>
   </si>
   <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Lars Erbst</t>
-  </si>
-  <si>
-    <t>Simon Hooper</t>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Richard Hempel</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Bram Van Driessche</t>
   </si>
   <si>
     <t>Thomas Bramall</t>
   </si>
   <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Richard Hempel</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
-  </si>
-  <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
     <t>Will Finnie</t>
   </si>
   <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Michiel Allaerts</t>
+  </si>
+  <si>
     <t>Craig Pawson</t>
   </si>
   <si>
-    <t>Sven Jablonski</t>
-  </si>
-  <si>
-    <t>Michiel Allaerts</t>
-  </si>
-  <si>
     <t>Gavin Ward</t>
   </si>
   <si>
     <t>Michael Bacher</t>
   </si>
   <si>
-    <t>Nicolas Laforge</t>
-  </si>
-  <si>
     <t>Jasper Vergoote</t>
   </si>
   <si>
@@ -325,43 +358,40 @@
     <t>Dean Whitestone</t>
   </si>
   <si>
-    <t>Lothar D'Hondt</t>
+    <t>Klass Clerkx</t>
   </si>
   <si>
     <t>James Linington</t>
   </si>
   <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
+    <t>Florian Exner</t>
+  </si>
+  <si>
     <t>Keith Stroud</t>
   </si>
   <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
+    <t>Thomas Kirk</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
+  </si>
+  <si>
     <t>Ben Toner</t>
   </si>
   <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Nicolas Winter</t>
-  </si>
-  <si>
-    <t>Thomas Kirk</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
-  </si>
-  <si>
-    <t>Max Burda</t>
-  </si>
-  <si>
     <t>David Coote</t>
   </si>
   <si>
     <t>Erik Lambrechts</t>
   </si>
   <si>
-    <t>48</t>
+    <t>Matthias Jöllenbeck</t>
   </si>
   <si>
     <t>Andrew Kitchen</t>
@@ -379,9 +409,6 @@
     <t>Frank Willenborg</t>
   </si>
   <si>
-    <t>Lawrence Visser</t>
-  </si>
-  <si>
     <t>Harm Osmers</t>
   </si>
   <si>
@@ -394,9 +421,6 @@
     <t>Darren Bond</t>
   </si>
   <si>
-    <t>Tony Harrington</t>
-  </si>
-  <si>
     <t>Geoff Eltringham</t>
   </si>
   <si>
@@ -409,13 +433,13 @@
     <t>Martin Petersen</t>
   </si>
   <si>
+    <t>Farai Hallam</t>
+  </si>
+  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
     <t>Sunny Gill</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
   </si>
   <si>
     <t>Felix Brych</t>
@@ -494,10 +518,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -516,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -538,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -549,10 +573,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -560,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -571,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -582,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -593,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -604,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -615,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -626,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -637,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -648,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -659,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -670,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -681,10 +705,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +716,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -703,10 +727,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -714,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -725,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -736,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -747,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -758,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -769,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -780,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -791,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -802,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -813,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -824,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -835,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -846,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
@@ -857,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
@@ -868,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -879,7 +903,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -890,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -901,7 +925,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -912,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -923,7 +947,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -934,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -945,7 +969,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -956,7 +980,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
@@ -967,7 +991,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
@@ -978,7 +1002,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
@@ -989,9 +1013,75 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1033,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -1044,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
@@ -1055,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -1066,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -1077,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1088,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1099,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1110,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1121,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1132,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1143,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1154,10 +1244,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -1165,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -1176,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -1187,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -1198,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -1209,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -1220,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -1231,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -1242,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -1253,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1264,10 +1354,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -1275,10 +1365,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -1286,10 +1376,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1297,10 +1387,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -1308,7 +1398,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -1319,7 +1409,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1330,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1341,7 +1431,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1352,7 +1442,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -1363,7 +1453,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -1374,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -1385,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
@@ -1396,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
@@ -1407,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -1418,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -1429,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -1440,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -1451,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -1462,7 +1552,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -1473,7 +1563,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -1484,9 +1574,119 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1528,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -1539,10 +1739,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1550,10 +1750,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1561,10 +1761,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1572,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1583,7 +1783,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -1594,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1605,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1616,10 +1816,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -1627,10 +1827,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1638,10 +1838,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1649,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -1660,7 +1860,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -1671,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -1682,7 +1882,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -1693,7 +1893,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -1704,7 +1904,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -1715,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -1726,7 +1926,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -1737,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -1748,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1759,7 +1959,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -1770,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -1781,10 +1981,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1792,7 +1992,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -1803,7 +2003,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -1814,7 +2014,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1825,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1836,7 +2036,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1847,7 +2047,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -1858,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -1869,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -1880,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
@@ -1891,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
@@ -1902,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -1913,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -1924,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -1935,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -1946,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -1957,7 +2157,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -1968,7 +2168,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -1979,7 +2179,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -1990,7 +2190,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
@@ -2001,7 +2201,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
@@ -2012,7 +2212,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
@@ -2023,7 +2223,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C48" t="n">
         <v>1.0</v>
@@ -2031,12 +2231,56 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2078,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -2089,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -2100,10 +2344,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +2358,7 @@
         <v>103</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -2122,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2133,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2144,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -2155,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -2166,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -2177,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -2188,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -2199,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -2210,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -2221,10 +2465,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2232,10 +2476,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -2243,10 +2487,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -2254,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -2265,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -2276,7 +2520,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -2287,7 +2531,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2298,7 +2542,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -2309,7 +2553,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -2320,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -2331,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -2342,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -2353,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -2364,7 +2608,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -2375,7 +2619,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -2386,9 +2630,53 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2418,8 +2706,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>85</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -2429,11 +2717,11 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -2441,10 +2729,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2452,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -2463,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2474,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2485,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2499,7 +2787,7 @@
         <v>123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -2507,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -2529,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2540,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -2551,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -2562,7 +2850,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -2573,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -2584,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2595,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2606,9 +2894,20 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2639,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -2661,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -2672,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -2683,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -2694,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -2705,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -2716,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -2727,7 +3026,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -2738,7 +3037,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -2749,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2760,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -2771,7 +3070,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -2782,9 +3081,20 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
